--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2137.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2137.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.262554653229834</v>
+        <v>0.5849801301956177</v>
       </c>
       <c r="B1">
-        <v>3.158732808269282</v>
+        <v>1.220777630805969</v>
       </c>
       <c r="C1">
-        <v>1.169363667044139</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.7606389812599527</v>
+        <v>2.67427396774292</v>
       </c>
       <c r="E1">
-        <v>0.6219055826130766</v>
+        <v>1.443329811096191</v>
       </c>
     </row>
   </sheetData>
